--- a/Hourlog.xlsx
+++ b/Hourlog.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" s="4">
         <f>F1-SUM(C:C)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>2</v>
@@ -594,15 +594,23 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="9">
+        <v>42739</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="9">
+        <v>42745</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">

--- a/Hourlog.xlsx
+++ b/Hourlog.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" s="4">
         <f>F1-SUM(C:C)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>2</v>
@@ -605,12 +605,8 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>42745</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">

--- a/Hourlog.xlsx
+++ b/Hourlog.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" s="4">
         <f>F1-SUM(C:C)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>2</v>
@@ -605,8 +605,12 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="9">
+        <v>42753</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
